--- a/data/Data Ship.xlsx
+++ b/data/Data Ship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B65D42F-7AF9-495B-A692-EF15938BDC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F26C1A-18D6-4363-B36E-59920C96555B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="4920" windowWidth="6780" windowHeight="7440" xr2:uid="{94031A23-C29B-486C-BAE1-1C1B451DA7BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94031A23-C29B-486C-BAE1-1C1B451DA7BF}"/>
   </bookViews>
   <sheets>
     <sheet name="TL1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Ambon</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Tifu</t>
   </si>
   <si>
-    <t>Waemulang</t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>PL1</t>
+  </si>
+  <si>
+    <t>Banda Neira</t>
+  </si>
+  <si>
+    <t>Seira</t>
   </si>
 </sst>
 </file>
@@ -160,12 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,35 +495,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -573,42 +575,42 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -657,31 +659,31 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -692,7 +694,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -712,30 +714,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -796,38 +798,41 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +845,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,30 +855,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/Data Ship.xlsx
+++ b/data/Data Ship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanggor\Documents\Wanggor\Project\pelabuhan\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F26C1A-18D6-4363-B36E-59920C96555B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA0B08-68E7-4EED-9A0E-E5FE5DEF300E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94031A23-C29B-486C-BAE1-1C1B451DA7BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{94031A23-C29B-486C-BAE1-1C1B451DA7BF}"/>
   </bookViews>
   <sheets>
     <sheet name="TL1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="PR_Saumlaki" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,15 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Ambon</t>
-  </si>
-  <si>
-    <t>Tifu</t>
-  </si>
-  <si>
-    <t>Route</t>
   </si>
   <si>
     <t>Ship_Name</t>
@@ -482,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7ECCF7-521D-422E-A0AE-C373C69572FD}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,77 +486,27 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -572,82 +515,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FC6DA1-DA9F-4E6C-87B5-0B66697D995D}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -656,45 +552,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED97305-6440-44CF-9130-F74AC0052161}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -704,85 +589,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9534AAB5-7F6D-48D0-A03A-254C5D6C24A3}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -791,10 +629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B6196F-AFA5-4892-9CF0-5002DFC6B465}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,37 +640,26 @@
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +669,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789623D-D62E-4A6F-8ACC-FF1F49C60687}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,37 +680,26 @@
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
